--- a/Python/z.random learning/transactions2.xlsx
+++ b/Python/z.random learning/transactions2.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="34452" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$$-C09]#,##0.00;[Red]\-[$$-C09]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-C09]#,##0.00;[Red]\-[$$-C09]#,##0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -43,22 +43,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <barChart>
@@ -68,7 +136,64 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -115,7 +240,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -130,9 +255,31 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -425,23 +572,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="250" zoomScaleNormal="250">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.5703125"/>
+    <col width="11.5703125" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
+    <row r="1" ht="12.75" customHeight="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>transaction_id</t>
@@ -463,7 +610,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="1">
+    <row r="2" ht="12.75" customHeight="1" s="1">
       <c r="A2" t="n">
         <v>1001</v>
       </c>
@@ -477,7 +624,7 @@
         <v>5.355</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="3" s="1">
+    <row r="3" ht="12.75" customHeight="1" s="1">
       <c r="A3" t="n">
         <v>1002</v>
       </c>
@@ -491,7 +638,7 @@
         <v>6.255</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1">
+    <row r="4" ht="12.75" customHeight="1" s="1">
       <c r="A4" t="n">
         <v>1003</v>
       </c>
@@ -506,8 +653,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -516,6 +663,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>